--- a/document_travail/Diagramme de Gantt - Météo.xlsx
+++ b/document_travail/Diagramme de Gantt - Météo.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Diagramme de Gantt" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Diagramme de Gantt'!$A$1:$R$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Diagramme de Gantt'!$A$1:$R$25</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>2.1</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Jalons / Livrables</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Prometheus/Grafana</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -738,6 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,13 +836,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>456406</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>168672</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -881,13 +888,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>459979</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>13494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3572</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>3572</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -933,13 +940,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>453628</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>155972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>582612</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>165894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1296,66 +1303,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>453626</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>155973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>582610</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7145</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Losange 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10792220" y="5037536"/>
-          <a:ext cx="128984" cy="168672"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
       <xdr:colOff>457196</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>790</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>10717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1503,58 +1458,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>489739</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146046</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33332</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>155968</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Losange 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486770" y="5186359"/>
-          <a:ext cx="128984" cy="168672"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>456396</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -1608,24 +1511,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>459966</xdr:colOff>
+      <xdr:colOff>456396</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>155966</xdr:rowOff>
+      <xdr:rowOff>152387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3560</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585380</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>7138</xdr:rowOff>
+      <xdr:rowOff>3559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Losange 25"/>
+        <xdr:cNvPr id="28" name="Losange 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6115435" y="5037529"/>
+          <a:off x="6111865" y="3724262"/>
           <a:ext cx="128984" cy="168672"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -1660,24 +1563,180 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>453614</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>788</xdr:rowOff>
+      <xdr:colOff>456406</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>582598</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>10710</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Losange 26"/>
+        <xdr:cNvPr id="29" name="Losange 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6109083" y="5199851"/>
+          <a:off x="6111875" y="3879453"/>
+          <a:ext cx="128984" cy="168672"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>486172</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29765</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Losange 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8483203" y="3869531"/>
+          <a:ext cx="128984" cy="168672"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Losange 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10795004" y="3720701"/>
+          <a:ext cx="128984" cy="168672"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456413</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Losange 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10795007" y="3875883"/>
           <a:ext cx="128984" cy="168672"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -2037,10 +2096,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q35"/>
+  <dimension ref="B1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2519,140 +2578,146 @@
       <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="35"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="41"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="7">
+      <c r="B21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="35"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46"/>
-    </row>
-    <row r="22" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="50"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
     </row>
     <row r="23" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="50"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="53"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="53"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
@@ -2833,6 +2898,24 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
